--- a/biology/Zoologie/Carphodactylidae/Carphodactylidae.xlsx
+++ b/biology/Zoologie/Carphodactylidae/Carphodactylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carphodactylidae sont une famille de geckos. Elle a été créée par Arnold Girard Kluge en 1967.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille sont endémiques d'Australie.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (1 juin 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (1 juin 2012) :
 Carphodactylus Günther, 1897
 Nephrurus Günther, 1843
 Orraya Couper, Schneider, Hoskin &amp; Covacevich, 2000
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kluge, 1967 : Systematics, phylogeny, and zoogeography of the lizard genus Diplodactylus Gray (Gekkonidae). Australian Journal of Zoology, vol. 15, p. 1007–1108.</t>
         </is>
